--- a/tietokanta/class_proficiencies/proficiencies_Rogue.xlsx
+++ b/tietokanta/class_proficiencies/proficiencies_Rogue.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_proficiencies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFC46C4-585F-4523-87B7-83B6DAA1EF4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3885" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+  <si>
+    <t>Key Stat</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>8+Con</t>
+  </si>
+  <si>
+    <t>Saving Throw</t>
+  </si>
+  <si>
+    <t>Reflex|Expert</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Simple|Trained</t>
+  </si>
+  <si>
+    <t>Unarmed|Trained</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Light|Trained</t>
+  </si>
+  <si>
+    <t>Unarmored|Trained</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>ClassDC|Trained</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>Fortitude|Trained</t>
+  </si>
+  <si>
+    <t>Will|Expert</t>
+  </si>
+  <si>
+    <t>Perception|Expert</t>
+  </si>
+  <si>
+    <t>Stealth|Trained</t>
+  </si>
+  <si>
+    <t>7+Int|Trained</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +401,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>